--- a/cost_curves/optimisation/data/installed_capacities_non_fbmc.xlsx
+++ b/cost_curves/optimisation/data/installed_capacities_non_fbmc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>IT_NORD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>DK_1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>NO_2</t>
         </is>
@@ -476,9 +481,12 @@
         <v>702</v>
       </c>
       <c r="E2" t="n">
+        <v>1534</v>
+      </c>
+      <c r="F2" t="n">
         <v>691</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -520,9 +531,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2072</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -542,9 +556,12 @@
         <v>29927</v>
       </c>
       <c r="E5" t="n">
+        <v>44215</v>
+      </c>
+      <c r="F5" t="n">
         <v>1018</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -564,9 +581,12 @@
         <v>4642</v>
       </c>
       <c r="E6" t="n">
+        <v>5576</v>
+      </c>
+      <c r="F6" t="n">
         <v>1943</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,9 +606,12 @@
         <v>669</v>
       </c>
       <c r="E7" t="n">
+        <v>1543</v>
+      </c>
+      <c r="F7" t="n">
         <v>196</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,9 +631,12 @@
         <v>26037</v>
       </c>
       <c r="E8" t="n">
+        <v>22249</v>
+      </c>
+      <c r="F8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>11719</v>
       </c>
     </row>
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -652,9 +681,12 @@
         <v>565</v>
       </c>
       <c r="E10" t="n">
+        <v>120</v>
+      </c>
+      <c r="F10" t="n">
         <v>211</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>22</v>
       </c>
     </row>
@@ -674,9 +706,14 @@
         <v>118</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>1722</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -694,9 +731,12 @@
         <v>14640</v>
       </c>
       <c r="E12" t="n">
+        <v>5431</v>
+      </c>
+      <c r="F12" t="n">
         <v>1086</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -716,9 +756,12 @@
         <v>27735</v>
       </c>
       <c r="E13" t="n">
+        <v>11204</v>
+      </c>
+      <c r="F13" t="n">
         <v>3888</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1444</v>
       </c>
     </row>
@@ -738,9 +781,12 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F14" t="n">
         <v>1277</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -760,9 +806,12 @@
         <v>272</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>113</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
